--- a/Metadata figure.xlsx
+++ b/Metadata figure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Water report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbashevkin\Documents\Water-conditions-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -430,9 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Metadata figure.xlsx
+++ b/Metadata figure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="34">
   <si>
     <t>Region</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Phytoplankton</t>
   </si>
   <si>
-    <t>Delta Smelt</t>
-  </si>
-  <si>
     <t>FMWT</t>
   </si>
   <si>
@@ -102,6 +99,33 @@
   </si>
   <si>
     <t>DJFMP</t>
+  </si>
+  <si>
+    <t>Water temperature</t>
+  </si>
+  <si>
+    <t>CDEC</t>
+  </si>
+  <si>
+    <t>Secchi/turbidity</t>
+  </si>
+  <si>
+    <t>EDSM</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>Chl-a</t>
+  </si>
+  <si>
+    <t>Microcystis</t>
+  </si>
+  <si>
+    <t>Delta smelt</t>
+  </si>
+  <si>
+    <t>Bivalve</t>
   </si>
 </sst>
 </file>
@@ -428,9 +452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="E442" sqref="E442"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1548,10 +1574,10 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
         <v>20</v>
-      </c>
-      <c r="C66" t="s">
-        <v>21</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1565,10 +1591,10 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
         <v>20</v>
-      </c>
-      <c r="C67" t="s">
-        <v>21</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1582,10 +1608,10 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" t="s">
         <v>20</v>
-      </c>
-      <c r="C68" t="s">
-        <v>21</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1599,10 +1625,10 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="s">
         <v>20</v>
-      </c>
-      <c r="C69" t="s">
-        <v>21</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -1616,10 +1642,10 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
         <v>20</v>
-      </c>
-      <c r="C70" t="s">
-        <v>21</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1633,10 +1659,10 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
         <v>20</v>
-      </c>
-      <c r="C71" t="s">
-        <v>21</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -1650,10 +1676,10 @@
         <v>17</v>
       </c>
       <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" t="s">
         <v>20</v>
-      </c>
-      <c r="C72" t="s">
-        <v>21</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -1667,10 +1693,10 @@
         <v>18</v>
       </c>
       <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" t="s">
         <v>20</v>
-      </c>
-      <c r="C73" t="s">
-        <v>21</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -1684,10 +1710,10 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
         <v>11</v>
@@ -1701,10 +1727,10 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
         <v>11</v>
@@ -1718,10 +1744,10 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
         <v>11</v>
@@ -1735,10 +1761,10 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
         <v>11</v>
@@ -1752,10 +1778,10 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
         <v>11</v>
@@ -1769,10 +1795,10 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
         <v>11</v>
@@ -1786,10 +1812,10 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
         <v>11</v>
@@ -1803,10 +1829,10 @@
         <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D81" t="s">
         <v>11</v>
@@ -1820,10 +1846,10 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
@@ -1837,10 +1863,10 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
@@ -1854,10 +1880,10 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
@@ -1871,10 +1897,10 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -1888,10 +1914,10 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
@@ -1905,10 +1931,10 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
@@ -1922,10 +1948,10 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -1939,10 +1965,10 @@
         <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
@@ -1956,10 +1982,10 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
@@ -1973,10 +1999,10 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -1990,10 +2016,10 @@
         <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -2007,10 +2033,10 @@
         <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -2024,10 +2050,10 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -2041,10 +2067,10 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
@@ -2058,10 +2084,10 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -2075,10 +2101,10 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
@@ -2092,10 +2118,10 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
@@ -2109,10 +2135,10 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D99" t="s">
         <v>11</v>
@@ -2126,10 +2152,10 @@
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D100" t="s">
         <v>11</v>
@@ -2143,10 +2169,10 @@
         <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
         <v>11</v>
@@ -2160,10 +2186,10 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
         <v>11</v>
@@ -2177,10 +2203,10 @@
         <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
         <v>11</v>
@@ -2194,10 +2220,10 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s">
         <v>11</v>
@@ -2211,10 +2237,10 @@
         <v>18</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D105" t="s">
         <v>11</v>
@@ -2228,87 +2254,5711 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C106" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C108" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C111" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122">
         <v>17</v>
       </c>
-      <c r="B112" t="s">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>32</v>
+      </c>
+      <c r="C123" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" t="s">
+        <v>32</v>
+      </c>
+      <c r="C130" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" t="s">
+        <v>32</v>
+      </c>
+      <c r="C133" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" t="s">
+        <v>32</v>
+      </c>
+      <c r="C134" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" t="s">
+        <v>32</v>
+      </c>
+      <c r="C136" t="s">
+        <v>24</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B159" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B161" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" t="s">
+        <v>25</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164" t="s">
+        <v>25</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B165" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B167" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B168" t="s">
+        <v>25</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169" t="s">
+        <v>25</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" t="s">
+        <v>25</v>
+      </c>
+      <c r="C170" t="s">
+        <v>26</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" t="s">
+        <v>26</v>
+      </c>
+      <c r="D171" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" t="s">
+        <v>25</v>
+      </c>
+      <c r="C172" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
+        <v>25</v>
+      </c>
+      <c r="C173" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174" t="s">
+        <v>26</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" t="s">
+        <v>25</v>
+      </c>
+      <c r="C176" t="s">
+        <v>26</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" t="s">
+        <v>25</v>
+      </c>
+      <c r="C178" t="s">
+        <v>26</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" t="s">
+        <v>25</v>
+      </c>
+      <c r="C180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C182" t="s">
+        <v>26</v>
+      </c>
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" t="s">
+        <v>26</v>
+      </c>
+      <c r="D183" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184" t="s">
+        <v>26</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185" t="s">
+        <v>25</v>
+      </c>
+      <c r="C185" t="s">
+        <v>26</v>
+      </c>
+      <c r="D185" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" t="s">
+        <v>25</v>
+      </c>
+      <c r="C186" t="s">
+        <v>26</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" t="s">
+        <v>25</v>
+      </c>
+      <c r="C187" t="s">
+        <v>26</v>
+      </c>
+      <c r="D187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188" t="s">
+        <v>26</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189" t="s">
+        <v>25</v>
+      </c>
+      <c r="C189" t="s">
+        <v>26</v>
+      </c>
+      <c r="D189" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" t="s">
+        <v>25</v>
+      </c>
+      <c r="C190" t="s">
+        <v>26</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B191" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191" t="s">
+        <v>26</v>
+      </c>
+      <c r="D191" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" t="s">
+        <v>26</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B193" t="s">
+        <v>25</v>
+      </c>
+      <c r="C193" t="s">
+        <v>26</v>
+      </c>
+      <c r="D193" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B194" t="s">
+        <v>25</v>
+      </c>
+      <c r="C194" t="s">
+        <v>26</v>
+      </c>
+      <c r="D194" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" t="s">
+        <v>25</v>
+      </c>
+      <c r="C196" t="s">
+        <v>26</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" t="s">
+        <v>25</v>
+      </c>
+      <c r="C197" t="s">
+        <v>26</v>
+      </c>
+      <c r="D197" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" t="s">
+        <v>25</v>
+      </c>
+      <c r="C198" t="s">
+        <v>26</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" t="s">
+        <v>25</v>
+      </c>
+      <c r="C199" t="s">
+        <v>26</v>
+      </c>
+      <c r="D199" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B200" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" t="s">
+        <v>26</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201" t="s">
+        <v>25</v>
+      </c>
+      <c r="C201" t="s">
+        <v>26</v>
+      </c>
+      <c r="D201" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" t="s">
+        <v>27</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" t="s">
+        <v>27</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" t="s">
+        <v>27</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>27</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B207" t="s">
+        <v>27</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" t="s">
+        <v>27</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" t="s">
+        <v>27</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" t="s">
+        <v>27</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" t="s">
+        <v>27</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" t="s">
+        <v>27</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" t="s">
+        <v>27</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214" t="s">
+        <v>27</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" t="s">
+        <v>27</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" t="s">
+        <v>27</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" t="s">
+        <v>27</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" t="s">
+        <v>27</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B219" t="s">
+        <v>27</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" t="s">
+        <v>27</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="s">
+        <v>10</v>
+      </c>
+      <c r="E220">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B221" t="s">
+        <v>27</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B222" t="s">
+        <v>27</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B223" t="s">
+        <v>27</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B224" t="s">
+        <v>27</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>10</v>
+      </c>
+      <c r="E224">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B225" t="s">
+        <v>27</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B226" t="s">
+        <v>27</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B227" t="s">
+        <v>27</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" t="s">
+        <v>9</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B228" t="s">
+        <v>27</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B229" t="s">
+        <v>27</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" t="s">
+        <v>11</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B230" t="s">
+        <v>27</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B231" t="s">
+        <v>27</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>9</v>
+      </c>
+      <c r="E231">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B232" t="s">
+        <v>27</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>10</v>
+      </c>
+      <c r="E232">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B233" t="s">
+        <v>27</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>11</v>
+      </c>
+      <c r="E233">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" t="s">
+        <v>27</v>
+      </c>
+      <c r="C234" t="s">
+        <v>26</v>
+      </c>
+      <c r="D234" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" t="s">
+        <v>27</v>
+      </c>
+      <c r="C235" t="s">
+        <v>26</v>
+      </c>
+      <c r="D235" t="s">
+        <v>9</v>
+      </c>
+      <c r="E235">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" t="s">
+        <v>27</v>
+      </c>
+      <c r="C236" t="s">
+        <v>26</v>
+      </c>
+      <c r="D236" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" t="s">
+        <v>27</v>
+      </c>
+      <c r="C237" t="s">
+        <v>26</v>
+      </c>
+      <c r="D237" t="s">
+        <v>11</v>
+      </c>
+      <c r="E237">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B238" t="s">
+        <v>27</v>
+      </c>
+      <c r="C238" t="s">
+        <v>26</v>
+      </c>
+      <c r="D238" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B239" t="s">
+        <v>27</v>
+      </c>
+      <c r="C239" t="s">
+        <v>26</v>
+      </c>
+      <c r="D239" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B240" t="s">
+        <v>27</v>
+      </c>
+      <c r="C240" t="s">
+        <v>26</v>
+      </c>
+      <c r="D240" t="s">
+        <v>10</v>
+      </c>
+      <c r="E240">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B241" t="s">
+        <v>27</v>
+      </c>
+      <c r="C241" t="s">
+        <v>26</v>
+      </c>
+      <c r="D241" t="s">
+        <v>11</v>
+      </c>
+      <c r="E241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B242" t="s">
+        <v>27</v>
+      </c>
+      <c r="C242" t="s">
+        <v>26</v>
+      </c>
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243" t="s">
+        <v>27</v>
+      </c>
+      <c r="C243" t="s">
+        <v>26</v>
+      </c>
+      <c r="D243" t="s">
+        <v>9</v>
+      </c>
+      <c r="E243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244" t="s">
+        <v>27</v>
+      </c>
+      <c r="C244" t="s">
+        <v>26</v>
+      </c>
+      <c r="D244" t="s">
+        <v>10</v>
+      </c>
+      <c r="E244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B245" t="s">
+        <v>27</v>
+      </c>
+      <c r="C245" t="s">
+        <v>26</v>
+      </c>
+      <c r="D245" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B246" t="s">
+        <v>27</v>
+      </c>
+      <c r="C246" t="s">
+        <v>26</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B247" t="s">
+        <v>27</v>
+      </c>
+      <c r="C247" t="s">
+        <v>26</v>
+      </c>
+      <c r="D247" t="s">
+        <v>9</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B248" t="s">
+        <v>27</v>
+      </c>
+      <c r="C248" t="s">
+        <v>26</v>
+      </c>
+      <c r="D248" t="s">
+        <v>10</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B249" t="s">
+        <v>27</v>
+      </c>
+      <c r="C249" t="s">
+        <v>26</v>
+      </c>
+      <c r="D249" t="s">
+        <v>11</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" t="s">
+        <v>27</v>
+      </c>
+      <c r="C250" t="s">
+        <v>26</v>
+      </c>
+      <c r="D250" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" t="s">
+        <v>27</v>
+      </c>
+      <c r="C251" t="s">
+        <v>26</v>
+      </c>
+      <c r="D251" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252" t="s">
+        <v>27</v>
+      </c>
+      <c r="C252" t="s">
+        <v>26</v>
+      </c>
+      <c r="D252" t="s">
+        <v>10</v>
+      </c>
+      <c r="E252">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B253" t="s">
+        <v>27</v>
+      </c>
+      <c r="C253" t="s">
+        <v>26</v>
+      </c>
+      <c r="D253" t="s">
+        <v>11</v>
+      </c>
+      <c r="E253">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B254" t="s">
+        <v>27</v>
+      </c>
+      <c r="C254" t="s">
+        <v>26</v>
+      </c>
+      <c r="D254" t="s">
+        <v>7</v>
+      </c>
+      <c r="E254">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B255" t="s">
+        <v>27</v>
+      </c>
+      <c r="C255" t="s">
+        <v>26</v>
+      </c>
+      <c r="D255" t="s">
+        <v>9</v>
+      </c>
+      <c r="E255">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B256" t="s">
+        <v>27</v>
+      </c>
+      <c r="C256" t="s">
+        <v>26</v>
+      </c>
+      <c r="D256" t="s">
+        <v>10</v>
+      </c>
+      <c r="E256">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B257" t="s">
+        <v>27</v>
+      </c>
+      <c r="C257" t="s">
+        <v>26</v>
+      </c>
+      <c r="D257" t="s">
+        <v>11</v>
+      </c>
+      <c r="E257">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B258" t="s">
+        <v>27</v>
+      </c>
+      <c r="C258" t="s">
+        <v>26</v>
+      </c>
+      <c r="D258" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B259" t="s">
+        <v>27</v>
+      </c>
+      <c r="C259" t="s">
+        <v>26</v>
+      </c>
+      <c r="D259" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B260" t="s">
+        <v>27</v>
+      </c>
+      <c r="C260" t="s">
+        <v>26</v>
+      </c>
+      <c r="D260" t="s">
+        <v>10</v>
+      </c>
+      <c r="E260">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B261" t="s">
+        <v>27</v>
+      </c>
+      <c r="C261" t="s">
+        <v>26</v>
+      </c>
+      <c r="D261" t="s">
+        <v>11</v>
+      </c>
+      <c r="E261">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B262" t="s">
+        <v>27</v>
+      </c>
+      <c r="C262" t="s">
+        <v>26</v>
+      </c>
+      <c r="D262" t="s">
+        <v>7</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B263" t="s">
+        <v>27</v>
+      </c>
+      <c r="C263" t="s">
+        <v>26</v>
+      </c>
+      <c r="D263" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B264" t="s">
+        <v>27</v>
+      </c>
+      <c r="C264" t="s">
+        <v>26</v>
+      </c>
+      <c r="D264" t="s">
+        <v>10</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B265" t="s">
+        <v>27</v>
+      </c>
+      <c r="C265" t="s">
+        <v>26</v>
+      </c>
+      <c r="D265" t="s">
+        <v>11</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" t="s">
+        <v>27</v>
+      </c>
+      <c r="C266" t="s">
         <v>20</v>
       </c>
-      <c r="C112" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="D266" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267" t="s">
+        <v>27</v>
+      </c>
+      <c r="C267" t="s">
+        <v>20</v>
+      </c>
+      <c r="D267" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B268" t="s">
+        <v>27</v>
+      </c>
+      <c r="C268" t="s">
+        <v>20</v>
+      </c>
+      <c r="D268" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B269" t="s">
+        <v>27</v>
+      </c>
+      <c r="C269" t="s">
+        <v>20</v>
+      </c>
+      <c r="D269" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B270" t="s">
+        <v>27</v>
+      </c>
+      <c r="C270" t="s">
+        <v>20</v>
+      </c>
+      <c r="D270" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B271" t="s">
+        <v>27</v>
+      </c>
+      <c r="C271" t="s">
+        <v>20</v>
+      </c>
+      <c r="D271" t="s">
+        <v>7</v>
+      </c>
+      <c r="E271">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B272" t="s">
+        <v>27</v>
+      </c>
+      <c r="C272" t="s">
+        <v>20</v>
+      </c>
+      <c r="D272" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B273" t="s">
+        <v>27</v>
+      </c>
+      <c r="C273" t="s">
         <v>20</v>
       </c>
-      <c r="C113" t="s">
-        <v>25</v>
+      <c r="D273" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" t="s">
+        <v>27</v>
+      </c>
+      <c r="C274" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274" t="s">
+        <v>11</v>
+      </c>
+      <c r="E274">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275" t="s">
+        <v>27</v>
+      </c>
+      <c r="C275" t="s">
+        <v>21</v>
+      </c>
+      <c r="D275" t="s">
+        <v>11</v>
+      </c>
+      <c r="E275">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B276" t="s">
+        <v>27</v>
+      </c>
+      <c r="C276" t="s">
+        <v>21</v>
+      </c>
+      <c r="D276" t="s">
+        <v>11</v>
+      </c>
+      <c r="E276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B277" t="s">
+        <v>27</v>
+      </c>
+      <c r="C277" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B278" t="s">
+        <v>27</v>
+      </c>
+      <c r="C278" t="s">
+        <v>21</v>
+      </c>
+      <c r="D278" t="s">
+        <v>11</v>
+      </c>
+      <c r="E278">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B279" t="s">
+        <v>27</v>
+      </c>
+      <c r="C279" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279" t="s">
+        <v>11</v>
+      </c>
+      <c r="E279">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B280" t="s">
+        <v>27</v>
+      </c>
+      <c r="C280" t="s">
+        <v>21</v>
+      </c>
+      <c r="D280" t="s">
+        <v>11</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B281" t="s">
+        <v>27</v>
+      </c>
+      <c r="C281" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282" t="s">
+        <v>27</v>
+      </c>
+      <c r="C282" t="s">
+        <v>28</v>
+      </c>
+      <c r="D282" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" t="s">
+        <v>27</v>
+      </c>
+      <c r="C283" t="s">
+        <v>28</v>
+      </c>
+      <c r="D283" t="s">
+        <v>9</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B284" t="s">
+        <v>27</v>
+      </c>
+      <c r="C284" t="s">
+        <v>28</v>
+      </c>
+      <c r="D284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B285" t="s">
+        <v>27</v>
+      </c>
+      <c r="C285" t="s">
+        <v>28</v>
+      </c>
+      <c r="D285" t="s">
+        <v>11</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B286" t="s">
+        <v>27</v>
+      </c>
+      <c r="C286" t="s">
+        <v>28</v>
+      </c>
+      <c r="D286" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B287" t="s">
+        <v>27</v>
+      </c>
+      <c r="C287" t="s">
+        <v>28</v>
+      </c>
+      <c r="D287" t="s">
+        <v>9</v>
+      </c>
+      <c r="E287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B288" t="s">
+        <v>27</v>
+      </c>
+      <c r="C288" t="s">
+        <v>28</v>
+      </c>
+      <c r="D288" t="s">
+        <v>10</v>
+      </c>
+      <c r="E288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B289" t="s">
+        <v>27</v>
+      </c>
+      <c r="C289" t="s">
+        <v>28</v>
+      </c>
+      <c r="D289" t="s">
+        <v>11</v>
+      </c>
+      <c r="E289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" t="s">
+        <v>27</v>
+      </c>
+      <c r="C290" t="s">
+        <v>28</v>
+      </c>
+      <c r="D290" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B291" t="s">
+        <v>27</v>
+      </c>
+      <c r="C291" t="s">
+        <v>28</v>
+      </c>
+      <c r="D291" t="s">
+        <v>9</v>
+      </c>
+      <c r="E291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B292" t="s">
+        <v>27</v>
+      </c>
+      <c r="C292" t="s">
+        <v>28</v>
+      </c>
+      <c r="D292" t="s">
+        <v>10</v>
+      </c>
+      <c r="E292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B293" t="s">
+        <v>27</v>
+      </c>
+      <c r="C293" t="s">
+        <v>28</v>
+      </c>
+      <c r="D293" t="s">
+        <v>11</v>
+      </c>
+      <c r="E293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B294" t="s">
+        <v>27</v>
+      </c>
+      <c r="C294" t="s">
+        <v>28</v>
+      </c>
+      <c r="D294" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B295" t="s">
+        <v>27</v>
+      </c>
+      <c r="C295" t="s">
+        <v>28</v>
+      </c>
+      <c r="D295" t="s">
+        <v>9</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B296" t="s">
+        <v>27</v>
+      </c>
+      <c r="C296" t="s">
+        <v>28</v>
+      </c>
+      <c r="D296" t="s">
+        <v>10</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B297" t="s">
+        <v>27</v>
+      </c>
+      <c r="C297" t="s">
+        <v>28</v>
+      </c>
+      <c r="D297" t="s">
+        <v>11</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" t="s">
+        <v>27</v>
+      </c>
+      <c r="C298" t="s">
+        <v>28</v>
+      </c>
+      <c r="D298" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B299" t="s">
+        <v>27</v>
+      </c>
+      <c r="C299" t="s">
+        <v>28</v>
+      </c>
+      <c r="D299" t="s">
+        <v>9</v>
+      </c>
+      <c r="E299">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B300" t="s">
+        <v>27</v>
+      </c>
+      <c r="C300" t="s">
+        <v>28</v>
+      </c>
+      <c r="D300" t="s">
+        <v>10</v>
+      </c>
+      <c r="E300">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B301" t="s">
+        <v>27</v>
+      </c>
+      <c r="C301" t="s">
+        <v>28</v>
+      </c>
+      <c r="D301" t="s">
+        <v>11</v>
+      </c>
+      <c r="E301">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B302" t="s">
+        <v>27</v>
+      </c>
+      <c r="C302" t="s">
+        <v>28</v>
+      </c>
+      <c r="D302" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B303" t="s">
+        <v>27</v>
+      </c>
+      <c r="C303" t="s">
+        <v>28</v>
+      </c>
+      <c r="D303" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B304" t="s">
+        <v>27</v>
+      </c>
+      <c r="C304" t="s">
+        <v>28</v>
+      </c>
+      <c r="D304" t="s">
+        <v>10</v>
+      </c>
+      <c r="E304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B305" t="s">
+        <v>27</v>
+      </c>
+      <c r="C305" t="s">
+        <v>28</v>
+      </c>
+      <c r="D305" t="s">
+        <v>11</v>
+      </c>
+      <c r="E305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B306" t="s">
+        <v>27</v>
+      </c>
+      <c r="C306" t="s">
+        <v>28</v>
+      </c>
+      <c r="D306" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B307" t="s">
+        <v>27</v>
+      </c>
+      <c r="C307" t="s">
+        <v>28</v>
+      </c>
+      <c r="D307" t="s">
+        <v>9</v>
+      </c>
+      <c r="E307">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B308" t="s">
+        <v>27</v>
+      </c>
+      <c r="C308" t="s">
+        <v>28</v>
+      </c>
+      <c r="D308" t="s">
+        <v>10</v>
+      </c>
+      <c r="E308">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B309" t="s">
+        <v>27</v>
+      </c>
+      <c r="C309" t="s">
+        <v>28</v>
+      </c>
+      <c r="D309" t="s">
+        <v>11</v>
+      </c>
+      <c r="E309">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B310" t="s">
+        <v>27</v>
+      </c>
+      <c r="C310" t="s">
+        <v>28</v>
+      </c>
+      <c r="D310" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B311" t="s">
+        <v>27</v>
+      </c>
+      <c r="C311" t="s">
+        <v>28</v>
+      </c>
+      <c r="D311" t="s">
+        <v>9</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B312" t="s">
+        <v>27</v>
+      </c>
+      <c r="C312" t="s">
+        <v>28</v>
+      </c>
+      <c r="D312" t="s">
+        <v>10</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B313" t="s">
+        <v>27</v>
+      </c>
+      <c r="C313" t="s">
+        <v>28</v>
+      </c>
+      <c r="D313" t="s">
+        <v>11</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314" t="s">
+        <v>29</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" t="s">
+        <v>7</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" t="s">
+        <v>29</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" t="s">
+        <v>9</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B316" t="s">
+        <v>29</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" t="s">
+        <v>10</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" t="s">
+        <v>29</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="s">
+        <v>11</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B318" t="s">
+        <v>29</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="s">
+        <v>7</v>
+      </c>
+      <c r="E318">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B319" t="s">
+        <v>29</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" t="s">
+        <v>9</v>
+      </c>
+      <c r="E319">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B320" t="s">
+        <v>29</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" t="s">
+        <v>10</v>
+      </c>
+      <c r="E320">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B321" t="s">
+        <v>29</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321" t="s">
+        <v>11</v>
+      </c>
+      <c r="E321">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B322" t="s">
+        <v>29</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B323" t="s">
+        <v>29</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" t="s">
+        <v>9</v>
+      </c>
+      <c r="E323">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B324" t="s">
+        <v>29</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" t="s">
+        <v>10</v>
+      </c>
+      <c r="E324">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B325" t="s">
+        <v>29</v>
+      </c>
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325" t="s">
+        <v>11</v>
+      </c>
+      <c r="E325">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B326" t="s">
+        <v>29</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326" t="s">
+        <v>7</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B327" t="s">
+        <v>29</v>
+      </c>
+      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" t="s">
+        <v>9</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B328" t="s">
+        <v>29</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" t="s">
+        <v>10</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B329" t="s">
+        <v>29</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="s">
+        <v>11</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B330" t="s">
+        <v>29</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330" t="s">
+        <v>7</v>
+      </c>
+      <c r="E330">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B331" t="s">
+        <v>29</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B332" t="s">
+        <v>29</v>
+      </c>
+      <c r="C332" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332" t="s">
+        <v>10</v>
+      </c>
+      <c r="E332">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B333" t="s">
+        <v>29</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" t="s">
+        <v>11</v>
+      </c>
+      <c r="E333">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B334" t="s">
+        <v>29</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334" t="s">
+        <v>7</v>
+      </c>
+      <c r="E334">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B335" t="s">
+        <v>29</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335" t="s">
+        <v>9</v>
+      </c>
+      <c r="E335">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B336" t="s">
+        <v>29</v>
+      </c>
+      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" t="s">
+        <v>10</v>
+      </c>
+      <c r="E336">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B337" t="s">
+        <v>29</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" t="s">
+        <v>11</v>
+      </c>
+      <c r="E337">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B338" t="s">
+        <v>29</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338" t="s">
+        <v>7</v>
+      </c>
+      <c r="E338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B339" t="s">
+        <v>29</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" t="s">
+        <v>9</v>
+      </c>
+      <c r="E339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B340" t="s">
+        <v>29</v>
+      </c>
+      <c r="C340" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" t="s">
+        <v>10</v>
+      </c>
+      <c r="E340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B341" t="s">
+        <v>29</v>
+      </c>
+      <c r="C341" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341" t="s">
+        <v>11</v>
+      </c>
+      <c r="E341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B342" t="s">
+        <v>29</v>
+      </c>
+      <c r="C342" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342" t="s">
+        <v>7</v>
+      </c>
+      <c r="E342">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B343" t="s">
+        <v>29</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343" t="s">
+        <v>9</v>
+      </c>
+      <c r="E343">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B344" t="s">
+        <v>29</v>
+      </c>
+      <c r="C344" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344" t="s">
+        <v>10</v>
+      </c>
+      <c r="E344">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B345" t="s">
+        <v>29</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" t="s">
+        <v>11</v>
+      </c>
+      <c r="E345">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B346" t="s">
+        <v>30</v>
+      </c>
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" t="s">
+        <v>7</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B347" t="s">
+        <v>30</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" t="s">
+        <v>9</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B348" t="s">
+        <v>30</v>
+      </c>
+      <c r="C348" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348" t="s">
+        <v>10</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B349" t="s">
+        <v>30</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" t="s">
+        <v>11</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B350" t="s">
+        <v>30</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B351" t="s">
+        <v>30</v>
+      </c>
+      <c r="C351" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" t="s">
+        <v>9</v>
+      </c>
+      <c r="E351">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B352" t="s">
+        <v>30</v>
+      </c>
+      <c r="C352" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352" t="s">
+        <v>10</v>
+      </c>
+      <c r="E352">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B353" t="s">
+        <v>30</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" t="s">
+        <v>11</v>
+      </c>
+      <c r="E353">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B354" t="s">
+        <v>30</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" t="s">
+        <v>7</v>
+      </c>
+      <c r="E354">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B355" t="s">
+        <v>30</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" t="s">
+        <v>9</v>
+      </c>
+      <c r="E355">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B356" t="s">
+        <v>30</v>
+      </c>
+      <c r="C356" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356" t="s">
+        <v>10</v>
+      </c>
+      <c r="E356">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B357" t="s">
+        <v>30</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" t="s">
+        <v>11</v>
+      </c>
+      <c r="E357">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B358" t="s">
+        <v>30</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" t="s">
+        <v>7</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B359" t="s">
+        <v>30</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359" t="s">
+        <v>9</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B360" t="s">
+        <v>30</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" t="s">
+        <v>10</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B361" t="s">
+        <v>30</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" t="s">
+        <v>11</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B362" t="s">
+        <v>30</v>
+      </c>
+      <c r="C362" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362" t="s">
+        <v>7</v>
+      </c>
+      <c r="E362">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B363" t="s">
+        <v>30</v>
+      </c>
+      <c r="C363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" t="s">
+        <v>9</v>
+      </c>
+      <c r="E363">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B364" t="s">
+        <v>30</v>
+      </c>
+      <c r="C364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364" t="s">
+        <v>10</v>
+      </c>
+      <c r="E364">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B365" t="s">
+        <v>30</v>
+      </c>
+      <c r="C365" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365" t="s">
+        <v>11</v>
+      </c>
+      <c r="E365">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B366" t="s">
+        <v>30</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" t="s">
+        <v>7</v>
+      </c>
+      <c r="E366">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B367" t="s">
+        <v>30</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" t="s">
+        <v>9</v>
+      </c>
+      <c r="E367">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B368" t="s">
+        <v>30</v>
+      </c>
+      <c r="C368" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368" t="s">
+        <v>10</v>
+      </c>
+      <c r="E368">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B369" t="s">
+        <v>30</v>
+      </c>
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" t="s">
+        <v>11</v>
+      </c>
+      <c r="E369">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B370" t="s">
+        <v>30</v>
+      </c>
+      <c r="C370" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370" t="s">
+        <v>7</v>
+      </c>
+      <c r="E370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B371" t="s">
+        <v>30</v>
+      </c>
+      <c r="C371" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" t="s">
+        <v>9</v>
+      </c>
+      <c r="E371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B372" t="s">
+        <v>30</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" t="s">
+        <v>10</v>
+      </c>
+      <c r="E372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B373" t="s">
+        <v>30</v>
+      </c>
+      <c r="C373" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373" t="s">
+        <v>11</v>
+      </c>
+      <c r="E373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B374" t="s">
+        <v>30</v>
+      </c>
+      <c r="C374" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" t="s">
+        <v>7</v>
+      </c>
+      <c r="E374">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B375" t="s">
+        <v>30</v>
+      </c>
+      <c r="C375" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375" t="s">
+        <v>9</v>
+      </c>
+      <c r="E375">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B376" t="s">
+        <v>30</v>
+      </c>
+      <c r="C376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376" t="s">
+        <v>10</v>
+      </c>
+      <c r="E376">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B377" t="s">
+        <v>30</v>
+      </c>
+      <c r="C377" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377" t="s">
+        <v>11</v>
+      </c>
+      <c r="E377">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B378" t="s">
+        <v>31</v>
+      </c>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" t="s">
+        <v>7</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B379" t="s">
+        <v>31</v>
+      </c>
+      <c r="C379" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379" t="s">
+        <v>9</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B380" t="s">
+        <v>31</v>
+      </c>
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" t="s">
+        <v>10</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B381" t="s">
+        <v>31</v>
+      </c>
+      <c r="C381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381" t="s">
+        <v>11</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B382" t="s">
+        <v>31</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" t="s">
+        <v>7</v>
+      </c>
+      <c r="E382">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B383" t="s">
+        <v>31</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" t="s">
+        <v>9</v>
+      </c>
+      <c r="E383">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B384" t="s">
+        <v>31</v>
+      </c>
+      <c r="C384" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384" t="s">
+        <v>10</v>
+      </c>
+      <c r="E384">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B385" t="s">
+        <v>31</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" t="s">
+        <v>11</v>
+      </c>
+      <c r="E385">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B386" t="s">
+        <v>31</v>
+      </c>
+      <c r="C386" t="s">
+        <v>6</v>
+      </c>
+      <c r="D386" t="s">
+        <v>7</v>
+      </c>
+      <c r="E386">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B387" t="s">
+        <v>31</v>
+      </c>
+      <c r="C387" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" t="s">
+        <v>9</v>
+      </c>
+      <c r="E387">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B388" t="s">
+        <v>31</v>
+      </c>
+      <c r="C388" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388" t="s">
+        <v>10</v>
+      </c>
+      <c r="E388">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B389" t="s">
+        <v>31</v>
+      </c>
+      <c r="C389" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389" t="s">
+        <v>11</v>
+      </c>
+      <c r="E389">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B390" t="s">
+        <v>31</v>
+      </c>
+      <c r="C390" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390" t="s">
+        <v>7</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B391" t="s">
+        <v>31</v>
+      </c>
+      <c r="C391" t="s">
+        <v>6</v>
+      </c>
+      <c r="D391" t="s">
+        <v>9</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B392" t="s">
+        <v>31</v>
+      </c>
+      <c r="C392" t="s">
+        <v>6</v>
+      </c>
+      <c r="D392" t="s">
+        <v>10</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B393" t="s">
+        <v>31</v>
+      </c>
+      <c r="C393" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393" t="s">
+        <v>11</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B394" t="s">
+        <v>31</v>
+      </c>
+      <c r="C394" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394" t="s">
+        <v>7</v>
+      </c>
+      <c r="E394">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B395" t="s">
+        <v>31</v>
+      </c>
+      <c r="C395" t="s">
+        <v>6</v>
+      </c>
+      <c r="D395" t="s">
+        <v>9</v>
+      </c>
+      <c r="E395">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B396" t="s">
+        <v>31</v>
+      </c>
+      <c r="C396" t="s">
+        <v>6</v>
+      </c>
+      <c r="D396" t="s">
+        <v>10</v>
+      </c>
+      <c r="E396">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B397" t="s">
+        <v>31</v>
+      </c>
+      <c r="C397" t="s">
+        <v>6</v>
+      </c>
+      <c r="D397" t="s">
+        <v>11</v>
+      </c>
+      <c r="E397">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B398" t="s">
+        <v>31</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
+      <c r="D398" t="s">
+        <v>7</v>
+      </c>
+      <c r="E398">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B399" t="s">
+        <v>31</v>
+      </c>
+      <c r="C399" t="s">
+        <v>6</v>
+      </c>
+      <c r="D399" t="s">
+        <v>9</v>
+      </c>
+      <c r="E399">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B400" t="s">
+        <v>31</v>
+      </c>
+      <c r="C400" t="s">
+        <v>6</v>
+      </c>
+      <c r="D400" t="s">
+        <v>10</v>
+      </c>
+      <c r="E400">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B401" t="s">
+        <v>31</v>
+      </c>
+      <c r="C401" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401" t="s">
+        <v>11</v>
+      </c>
+      <c r="E401">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B402" t="s">
+        <v>31</v>
+      </c>
+      <c r="C402" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402" t="s">
+        <v>7</v>
+      </c>
+      <c r="E402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B403" t="s">
+        <v>31</v>
+      </c>
+      <c r="C403" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403" t="s">
+        <v>9</v>
+      </c>
+      <c r="E403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B404" t="s">
+        <v>31</v>
+      </c>
+      <c r="C404" t="s">
+        <v>6</v>
+      </c>
+      <c r="D404" t="s">
+        <v>10</v>
+      </c>
+      <c r="E404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B405" t="s">
+        <v>31</v>
+      </c>
+      <c r="C405" t="s">
+        <v>6</v>
+      </c>
+      <c r="D405" t="s">
+        <v>11</v>
+      </c>
+      <c r="E405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B406" t="s">
+        <v>31</v>
+      </c>
+      <c r="C406" t="s">
+        <v>6</v>
+      </c>
+      <c r="D406" t="s">
+        <v>7</v>
+      </c>
+      <c r="E406">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B407" t="s">
+        <v>31</v>
+      </c>
+      <c r="C407" t="s">
+        <v>6</v>
+      </c>
+      <c r="D407" t="s">
+        <v>9</v>
+      </c>
+      <c r="E407">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B408" t="s">
+        <v>31</v>
+      </c>
+      <c r="C408" t="s">
+        <v>6</v>
+      </c>
+      <c r="D408" t="s">
+        <v>10</v>
+      </c>
+      <c r="E408">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B409" t="s">
+        <v>31</v>
+      </c>
+      <c r="C409" t="s">
+        <v>6</v>
+      </c>
+      <c r="D409" t="s">
+        <v>11</v>
+      </c>
+      <c r="E409">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B410" t="s">
+        <v>33</v>
+      </c>
+      <c r="C410" t="s">
+        <v>6</v>
+      </c>
+      <c r="D410" t="s">
+        <v>7</v>
+      </c>
+      <c r="E410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B411" t="s">
+        <v>33</v>
+      </c>
+      <c r="C411" t="s">
+        <v>6</v>
+      </c>
+      <c r="D411" t="s">
+        <v>9</v>
+      </c>
+      <c r="E411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B412" t="s">
+        <v>33</v>
+      </c>
+      <c r="C412" t="s">
+        <v>6</v>
+      </c>
+      <c r="D412" t="s">
+        <v>10</v>
+      </c>
+      <c r="E412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B413" t="s">
+        <v>33</v>
+      </c>
+      <c r="C413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" t="s">
+        <v>11</v>
+      </c>
+      <c r="E413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B414" t="s">
+        <v>33</v>
+      </c>
+      <c r="C414" t="s">
+        <v>6</v>
+      </c>
+      <c r="D414" t="s">
+        <v>7</v>
+      </c>
+      <c r="E414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B415" t="s">
+        <v>33</v>
+      </c>
+      <c r="C415" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" t="s">
+        <v>9</v>
+      </c>
+      <c r="E415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B416" t="s">
+        <v>33</v>
+      </c>
+      <c r="C416" t="s">
+        <v>6</v>
+      </c>
+      <c r="D416" t="s">
+        <v>10</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B417" t="s">
+        <v>33</v>
+      </c>
+      <c r="C417" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417" t="s">
+        <v>11</v>
+      </c>
+      <c r="E417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B418" t="s">
+        <v>33</v>
+      </c>
+      <c r="C418" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418" t="s">
+        <v>7</v>
+      </c>
+      <c r="E418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B419" t="s">
+        <v>33</v>
+      </c>
+      <c r="C419" t="s">
+        <v>6</v>
+      </c>
+      <c r="D419" t="s">
+        <v>9</v>
+      </c>
+      <c r="E419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B420" t="s">
+        <v>33</v>
+      </c>
+      <c r="C420" t="s">
+        <v>6</v>
+      </c>
+      <c r="D420" t="s">
+        <v>10</v>
+      </c>
+      <c r="E420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B421" t="s">
+        <v>33</v>
+      </c>
+      <c r="C421" t="s">
+        <v>6</v>
+      </c>
+      <c r="D421" t="s">
+        <v>11</v>
+      </c>
+      <c r="E421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B422" t="s">
+        <v>33</v>
+      </c>
+      <c r="C422" t="s">
+        <v>6</v>
+      </c>
+      <c r="D422" t="s">
+        <v>7</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B423" t="s">
+        <v>33</v>
+      </c>
+      <c r="C423" t="s">
+        <v>6</v>
+      </c>
+      <c r="D423" t="s">
+        <v>9</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B424" t="s">
+        <v>33</v>
+      </c>
+      <c r="C424" t="s">
+        <v>6</v>
+      </c>
+      <c r="D424" t="s">
+        <v>10</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B425" t="s">
+        <v>33</v>
+      </c>
+      <c r="C425" t="s">
+        <v>6</v>
+      </c>
+      <c r="D425" t="s">
+        <v>11</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B426" t="s">
+        <v>33</v>
+      </c>
+      <c r="C426" t="s">
+        <v>6</v>
+      </c>
+      <c r="D426" t="s">
+        <v>7</v>
+      </c>
+      <c r="E426">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B427" t="s">
+        <v>33</v>
+      </c>
+      <c r="C427" t="s">
+        <v>6</v>
+      </c>
+      <c r="D427" t="s">
+        <v>9</v>
+      </c>
+      <c r="E427">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B428" t="s">
+        <v>33</v>
+      </c>
+      <c r="C428" t="s">
+        <v>6</v>
+      </c>
+      <c r="D428" t="s">
+        <v>10</v>
+      </c>
+      <c r="E428">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B429" t="s">
+        <v>33</v>
+      </c>
+      <c r="C429" t="s">
+        <v>6</v>
+      </c>
+      <c r="D429" t="s">
+        <v>11</v>
+      </c>
+      <c r="E429">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B430" t="s">
+        <v>33</v>
+      </c>
+      <c r="C430" t="s">
+        <v>6</v>
+      </c>
+      <c r="D430" t="s">
+        <v>7</v>
+      </c>
+      <c r="E430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B431" t="s">
+        <v>33</v>
+      </c>
+      <c r="C431" t="s">
+        <v>6</v>
+      </c>
+      <c r="D431" t="s">
+        <v>9</v>
+      </c>
+      <c r="E431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B432" t="s">
+        <v>33</v>
+      </c>
+      <c r="C432" t="s">
+        <v>6</v>
+      </c>
+      <c r="D432" t="s">
+        <v>10</v>
+      </c>
+      <c r="E432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B433" t="s">
+        <v>33</v>
+      </c>
+      <c r="C433" t="s">
+        <v>6</v>
+      </c>
+      <c r="D433" t="s">
+        <v>11</v>
+      </c>
+      <c r="E433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B434" t="s">
+        <v>33</v>
+      </c>
+      <c r="C434" t="s">
+        <v>6</v>
+      </c>
+      <c r="D434" t="s">
+        <v>7</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B435" t="s">
+        <v>33</v>
+      </c>
+      <c r="C435" t="s">
+        <v>6</v>
+      </c>
+      <c r="D435" t="s">
+        <v>9</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B436" t="s">
+        <v>33</v>
+      </c>
+      <c r="C436" t="s">
+        <v>6</v>
+      </c>
+      <c r="D436" t="s">
+        <v>10</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B437" t="s">
+        <v>33</v>
+      </c>
+      <c r="C437" t="s">
+        <v>6</v>
+      </c>
+      <c r="D437" t="s">
+        <v>11</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B438" t="s">
+        <v>33</v>
+      </c>
+      <c r="C438" t="s">
+        <v>6</v>
+      </c>
+      <c r="D438" t="s">
+        <v>7</v>
+      </c>
+      <c r="E438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B439" t="s">
+        <v>33</v>
+      </c>
+      <c r="C439" t="s">
+        <v>6</v>
+      </c>
+      <c r="D439" t="s">
+        <v>9</v>
+      </c>
+      <c r="E439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B440" t="s">
+        <v>33</v>
+      </c>
+      <c r="C440" t="s">
+        <v>6</v>
+      </c>
+      <c r="D440" t="s">
+        <v>10</v>
+      </c>
+      <c r="E440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B441" t="s">
+        <v>33</v>
+      </c>
+      <c r="C441" t="s">
+        <v>6</v>
+      </c>
+      <c r="D441" t="s">
+        <v>11</v>
+      </c>
+      <c r="E441">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Metadata figure.xlsx
+++ b/Metadata figure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="34">
   <si>
     <t>Region</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E441"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="E442" sqref="E442"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,13 +1985,13 @@
         <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E90">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2002,13 +2002,13 @@
         <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2019,13 +2019,13 @@
         <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E92">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,10 +2036,10 @@
         <v>32</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>32</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2070,10 +2070,10 @@
         <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95">
         <v>8</v>
@@ -2087,13 +2087,13 @@
         <v>32</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2104,13 +2104,13 @@
         <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E97">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2124,7 +2124,7 @@
         <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E98">
         <v>7</v>
@@ -2141,7 +2141,7 @@
         <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E99">
         <v>6</v>
@@ -2158,7 +2158,7 @@
         <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E100">
         <v>7</v>
@@ -2175,7 +2175,7 @@
         <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -2209,7 +2209,7 @@
         <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E103">
         <v>8</v>
@@ -2226,7 +2226,7 @@
         <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>23</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E105">
         <v>14</v>
@@ -2257,137 +2257,137 @@
         <v>32</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
         <v>32</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B108" t="s">
         <v>32</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s">
         <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D109" t="s">
         <v>11</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B110" t="s">
         <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B111" t="s">
         <v>32</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B112" t="s">
         <v>32</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B113" t="s">
         <v>32</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s">
         <v>11</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
         <v>32</v>
@@ -2399,12 +2399,12 @@
         <v>7</v>
       </c>
       <c r="E114">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
         <v>32</v>
@@ -2416,12 +2416,12 @@
         <v>9</v>
       </c>
       <c r="E115">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
         <v>32</v>
@@ -2433,12 +2433,12 @@
         <v>10</v>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
         <v>32</v>
@@ -2450,12 +2450,12 @@
         <v>11</v>
       </c>
       <c r="E117">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s">
         <v>32</v>
@@ -2467,12 +2467,12 @@
         <v>7</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
         <v>32</v>
@@ -2484,12 +2484,12 @@
         <v>9</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
         <v>32</v>
@@ -2501,12 +2501,12 @@
         <v>10</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
         <v>32</v>
@@ -2518,12 +2518,12 @@
         <v>11</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B122" t="s">
         <v>32</v>
@@ -2535,12 +2535,12 @@
         <v>7</v>
       </c>
       <c r="E122">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
         <v>32</v>
@@ -2552,12 +2552,12 @@
         <v>9</v>
       </c>
       <c r="E123">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B124" t="s">
         <v>32</v>
@@ -2569,12 +2569,12 @@
         <v>10</v>
       </c>
       <c r="E124">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
         <v>32</v>
@@ -2586,12 +2586,12 @@
         <v>11</v>
       </c>
       <c r="E125">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B126" t="s">
         <v>32</v>
@@ -2603,12 +2603,12 @@
         <v>7</v>
       </c>
       <c r="E126">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B127" t="s">
         <v>32</v>
@@ -2620,12 +2620,12 @@
         <v>9</v>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
         <v>32</v>
@@ -2637,12 +2637,12 @@
         <v>10</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B129" t="s">
         <v>32</v>
@@ -2654,12 +2654,12 @@
         <v>11</v>
       </c>
       <c r="E129">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
         <v>32</v>
@@ -2671,12 +2671,12 @@
         <v>7</v>
       </c>
       <c r="E130">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B131" t="s">
         <v>32</v>
@@ -2688,12 +2688,12 @@
         <v>9</v>
       </c>
       <c r="E131">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B132" t="s">
         <v>32</v>
@@ -2705,12 +2705,12 @@
         <v>10</v>
       </c>
       <c r="E132">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B133" t="s">
         <v>32</v>
@@ -2722,12 +2722,12 @@
         <v>11</v>
       </c>
       <c r="E133">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B134" t="s">
         <v>32</v>
@@ -2739,12 +2739,12 @@
         <v>7</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B135" t="s">
         <v>32</v>
@@ -2756,12 +2756,12 @@
         <v>9</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B136" t="s">
         <v>32</v>
@@ -2773,12 +2773,12 @@
         <v>10</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B137" t="s">
         <v>32</v>
@@ -2790,148 +2790,148 @@
         <v>11</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D140" t="s">
         <v>10</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
         <v>11</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B142" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
       </c>
       <c r="E142">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B143" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D143" t="s">
         <v>9</v>
       </c>
       <c r="E143">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B144" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D144" t="s">
         <v>10</v>
       </c>
       <c r="E144">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D145" t="s">
         <v>11</v>
       </c>
       <c r="E145">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
         <v>25</v>
@@ -2943,12 +2943,12 @@
         <v>7</v>
       </c>
       <c r="E146">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
         <v>25</v>
@@ -2960,12 +2960,12 @@
         <v>9</v>
       </c>
       <c r="E147">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B148" t="s">
         <v>25</v>
@@ -2977,12 +2977,12 @@
         <v>10</v>
       </c>
       <c r="E148">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
         <v>25</v>
@@ -2994,12 +2994,12 @@
         <v>11</v>
       </c>
       <c r="E149">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B150" t="s">
         <v>25</v>
@@ -3011,12 +3011,12 @@
         <v>7</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B151" t="s">
         <v>25</v>
@@ -3028,12 +3028,12 @@
         <v>9</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B152" t="s">
         <v>25</v>
@@ -3045,12 +3045,12 @@
         <v>10</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B153" t="s">
         <v>25</v>
@@ -3062,12 +3062,12 @@
         <v>11</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B154" t="s">
         <v>25</v>
@@ -3079,12 +3079,12 @@
         <v>7</v>
       </c>
       <c r="E154">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B155" t="s">
         <v>25</v>
@@ -3096,12 +3096,12 @@
         <v>9</v>
       </c>
       <c r="E155">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B156" t="s">
         <v>25</v>
@@ -3113,12 +3113,12 @@
         <v>10</v>
       </c>
       <c r="E156">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B157" t="s">
         <v>25</v>
@@ -3130,12 +3130,12 @@
         <v>11</v>
       </c>
       <c r="E157">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B158" t="s">
         <v>25</v>
@@ -3147,12 +3147,12 @@
         <v>7</v>
       </c>
       <c r="E158">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B159" t="s">
         <v>25</v>
@@ -3164,12 +3164,12 @@
         <v>9</v>
       </c>
       <c r="E159">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B160" t="s">
         <v>25</v>
@@ -3181,12 +3181,12 @@
         <v>10</v>
       </c>
       <c r="E160">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B161" t="s">
         <v>25</v>
@@ -3198,12 +3198,12 @@
         <v>11</v>
       </c>
       <c r="E161">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B162" t="s">
         <v>25</v>
@@ -3215,12 +3215,12 @@
         <v>7</v>
       </c>
       <c r="E162">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B163" t="s">
         <v>25</v>
@@ -3232,12 +3232,12 @@
         <v>9</v>
       </c>
       <c r="E163">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B164" t="s">
         <v>25</v>
@@ -3249,12 +3249,12 @@
         <v>10</v>
       </c>
       <c r="E164">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B165" t="s">
         <v>25</v>
@@ -3266,12 +3266,12 @@
         <v>11</v>
       </c>
       <c r="E165">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B166" t="s">
         <v>25</v>
@@ -3283,12 +3283,12 @@
         <v>7</v>
       </c>
       <c r="E166">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B167" t="s">
         <v>25</v>
@@ -3300,12 +3300,12 @@
         <v>9</v>
       </c>
       <c r="E167">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B168" t="s">
         <v>25</v>
@@ -3317,12 +3317,12 @@
         <v>10</v>
       </c>
       <c r="E168">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B169" t="s">
         <v>25</v>
@@ -3334,148 +3334,148 @@
         <v>11</v>
       </c>
       <c r="E169">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B170" t="s">
         <v>25</v>
       </c>
       <c r="C170" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
       </c>
       <c r="E170">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B171" t="s">
         <v>25</v>
       </c>
       <c r="C171" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D171" t="s">
         <v>9</v>
       </c>
       <c r="E171">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B172" t="s">
         <v>25</v>
       </c>
       <c r="C172" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D172" t="s">
         <v>10</v>
       </c>
       <c r="E172">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B173" t="s">
         <v>25</v>
       </c>
       <c r="C173" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
       </c>
       <c r="E173">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B174" t="s">
         <v>25</v>
       </c>
       <c r="C174" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
       </c>
       <c r="E174">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B175" t="s">
         <v>25</v>
       </c>
       <c r="C175" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D175" t="s">
         <v>9</v>
       </c>
       <c r="E175">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B176" t="s">
         <v>25</v>
       </c>
       <c r="C176" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D176" t="s">
         <v>10</v>
       </c>
       <c r="E176">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B177" t="s">
         <v>25</v>
       </c>
       <c r="C177" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D177" t="s">
         <v>11</v>
       </c>
       <c r="E177">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B178" t="s">
         <v>25</v>
@@ -3487,12 +3487,12 @@
         <v>7</v>
       </c>
       <c r="E178">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B179" t="s">
         <v>25</v>
@@ -3504,12 +3504,12 @@
         <v>9</v>
       </c>
       <c r="E179">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B180" t="s">
         <v>25</v>
@@ -3521,12 +3521,12 @@
         <v>10</v>
       </c>
       <c r="E180">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B181" t="s">
         <v>25</v>
@@ -3538,12 +3538,12 @@
         <v>11</v>
       </c>
       <c r="E181">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B182" t="s">
         <v>25</v>
@@ -3555,12 +3555,12 @@
         <v>7</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B183" t="s">
         <v>25</v>
@@ -3572,12 +3572,12 @@
         <v>9</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B184" t="s">
         <v>25</v>
@@ -3589,12 +3589,12 @@
         <v>10</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
         <v>25</v>
@@ -3606,12 +3606,12 @@
         <v>11</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B186" t="s">
         <v>25</v>
@@ -3623,12 +3623,12 @@
         <v>7</v>
       </c>
       <c r="E186">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B187" t="s">
         <v>25</v>
@@ -3640,12 +3640,12 @@
         <v>9</v>
       </c>
       <c r="E187">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B188" t="s">
         <v>25</v>
@@ -3657,12 +3657,12 @@
         <v>10</v>
       </c>
       <c r="E188">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B189" t="s">
         <v>25</v>
@@ -3674,12 +3674,12 @@
         <v>11</v>
       </c>
       <c r="E189">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B190" t="s">
         <v>25</v>
@@ -3691,12 +3691,12 @@
         <v>7</v>
       </c>
       <c r="E190">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B191" t="s">
         <v>25</v>
@@ -3708,12 +3708,12 @@
         <v>9</v>
       </c>
       <c r="E191">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B192" t="s">
         <v>25</v>
@@ -3725,12 +3725,12 @@
         <v>10</v>
       </c>
       <c r="E192">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B193" t="s">
         <v>25</v>
@@ -3742,12 +3742,12 @@
         <v>11</v>
       </c>
       <c r="E193">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B194" t="s">
         <v>25</v>
@@ -3759,12 +3759,12 @@
         <v>7</v>
       </c>
       <c r="E194">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B195" t="s">
         <v>25</v>
@@ -3776,12 +3776,12 @@
         <v>9</v>
       </c>
       <c r="E195">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B196" t="s">
         <v>25</v>
@@ -3793,12 +3793,12 @@
         <v>10</v>
       </c>
       <c r="E196">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B197" t="s">
         <v>25</v>
@@ -3810,12 +3810,12 @@
         <v>11</v>
       </c>
       <c r="E197">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B198" t="s">
         <v>25</v>
@@ -3827,12 +3827,12 @@
         <v>7</v>
       </c>
       <c r="E198">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B199" t="s">
         <v>25</v>
@@ -3844,12 +3844,12 @@
         <v>9</v>
       </c>
       <c r="E199">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B200" t="s">
         <v>25</v>
@@ -3861,12 +3861,12 @@
         <v>10</v>
       </c>
       <c r="E200">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B201" t="s">
         <v>25</v>
@@ -3878,148 +3878,148 @@
         <v>11</v>
       </c>
       <c r="E201">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B202" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D202" t="s">
         <v>7</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B203" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D203" t="s">
         <v>9</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B204" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D204" t="s">
         <v>10</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B205" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D205" t="s">
         <v>11</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B206" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D206" t="s">
         <v>7</v>
       </c>
       <c r="E206">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B207" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D207" t="s">
         <v>9</v>
       </c>
       <c r="E207">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B208" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C208" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D208" t="s">
         <v>10</v>
       </c>
       <c r="E208">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B209" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D209" t="s">
         <v>11</v>
       </c>
       <c r="E209">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B210" t="s">
         <v>27</v>
@@ -4031,12 +4031,12 @@
         <v>7</v>
       </c>
       <c r="E210">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B211" t="s">
         <v>27</v>
@@ -4048,12 +4048,12 @@
         <v>9</v>
       </c>
       <c r="E211">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B212" t="s">
         <v>27</v>
@@ -4065,12 +4065,12 @@
         <v>10</v>
       </c>
       <c r="E212">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B213" t="s">
         <v>27</v>
@@ -4082,12 +4082,12 @@
         <v>11</v>
       </c>
       <c r="E213">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B214" t="s">
         <v>27</v>
@@ -4099,12 +4099,12 @@
         <v>7</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B215" t="s">
         <v>27</v>
@@ -4116,12 +4116,12 @@
         <v>9</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B216" t="s">
         <v>27</v>
@@ -4133,12 +4133,12 @@
         <v>10</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B217" t="s">
         <v>27</v>
@@ -4150,12 +4150,12 @@
         <v>11</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B218" t="s">
         <v>27</v>
@@ -4167,12 +4167,12 @@
         <v>7</v>
       </c>
       <c r="E218">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B219" t="s">
         <v>27</v>
@@ -4184,12 +4184,12 @@
         <v>9</v>
       </c>
       <c r="E219">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B220" t="s">
         <v>27</v>
@@ -4201,12 +4201,12 @@
         <v>10</v>
       </c>
       <c r="E220">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B221" t="s">
         <v>27</v>
@@ -4218,12 +4218,12 @@
         <v>11</v>
       </c>
       <c r="E221">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B222" t="s">
         <v>27</v>
@@ -4235,12 +4235,12 @@
         <v>7</v>
       </c>
       <c r="E222">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B223" t="s">
         <v>27</v>
@@ -4252,12 +4252,12 @@
         <v>9</v>
       </c>
       <c r="E223">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B224" t="s">
         <v>27</v>
@@ -4269,12 +4269,12 @@
         <v>10</v>
       </c>
       <c r="E224">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B225" t="s">
         <v>27</v>
@@ -4286,12 +4286,12 @@
         <v>11</v>
       </c>
       <c r="E225">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B226" t="s">
         <v>27</v>
@@ -4303,12 +4303,12 @@
         <v>7</v>
       </c>
       <c r="E226">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B227" t="s">
         <v>27</v>
@@ -4320,12 +4320,12 @@
         <v>9</v>
       </c>
       <c r="E227">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B228" t="s">
         <v>27</v>
@@ -4337,12 +4337,12 @@
         <v>10</v>
       </c>
       <c r="E228">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B229" t="s">
         <v>27</v>
@@ -4354,12 +4354,12 @@
         <v>11</v>
       </c>
       <c r="E229">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B230" t="s">
         <v>27</v>
@@ -4371,12 +4371,12 @@
         <v>7</v>
       </c>
       <c r="E230">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B231" t="s">
         <v>27</v>
@@ -4388,12 +4388,12 @@
         <v>9</v>
       </c>
       <c r="E231">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B232" t="s">
         <v>27</v>
@@ -4405,12 +4405,12 @@
         <v>10</v>
       </c>
       <c r="E232">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B233" t="s">
         <v>27</v>
@@ -4422,148 +4422,148 @@
         <v>11</v>
       </c>
       <c r="E233">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B234" t="s">
         <v>27</v>
       </c>
       <c r="C234" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D234" t="s">
         <v>7</v>
       </c>
       <c r="E234">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B235" t="s">
         <v>27</v>
       </c>
       <c r="C235" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D235" t="s">
         <v>9</v>
       </c>
       <c r="E235">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B236" t="s">
         <v>27</v>
       </c>
       <c r="C236" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D236" t="s">
         <v>10</v>
       </c>
       <c r="E236">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B237" t="s">
         <v>27</v>
       </c>
       <c r="C237" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D237" t="s">
         <v>11</v>
       </c>
       <c r="E237">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B238" t="s">
+        <v>27</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238">
         <v>12</v>
-      </c>
-      <c r="B238" t="s">
-        <v>27</v>
-      </c>
-      <c r="C238" t="s">
-        <v>26</v>
-      </c>
-      <c r="D238" t="s">
-        <v>7</v>
-      </c>
-      <c r="E238">
-        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B239" t="s">
+        <v>27</v>
+      </c>
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239">
         <v>12</v>
-      </c>
-      <c r="B239" t="s">
-        <v>27</v>
-      </c>
-      <c r="C239" t="s">
-        <v>26</v>
-      </c>
-      <c r="D239" t="s">
-        <v>9</v>
-      </c>
-      <c r="E239">
-        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B240" t="s">
+        <v>27</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" t="s">
+        <v>10</v>
+      </c>
+      <c r="E240">
         <v>12</v>
-      </c>
-      <c r="B240" t="s">
-        <v>27</v>
-      </c>
-      <c r="C240" t="s">
-        <v>26</v>
-      </c>
-      <c r="D240" t="s">
-        <v>10</v>
-      </c>
-      <c r="E240">
-        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B241" t="s">
+        <v>27</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s">
+        <v>11</v>
+      </c>
+      <c r="E241">
         <v>12</v>
-      </c>
-      <c r="B241" t="s">
-        <v>27</v>
-      </c>
-      <c r="C241" t="s">
-        <v>26</v>
-      </c>
-      <c r="D241" t="s">
-        <v>11</v>
-      </c>
-      <c r="E241">
-        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B242" t="s">
         <v>27</v>
@@ -4575,12 +4575,12 @@
         <v>7</v>
       </c>
       <c r="E242">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B243" t="s">
         <v>27</v>
@@ -4592,12 +4592,12 @@
         <v>9</v>
       </c>
       <c r="E243">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B244" t="s">
         <v>27</v>
@@ -4609,12 +4609,12 @@
         <v>10</v>
       </c>
       <c r="E244">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B245" t="s">
         <v>27</v>
@@ -4626,12 +4626,12 @@
         <v>11</v>
       </c>
       <c r="E245">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B246" t="s">
         <v>27</v>
@@ -4643,12 +4643,12 @@
         <v>7</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B247" t="s">
         <v>27</v>
@@ -4660,12 +4660,12 @@
         <v>9</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B248" t="s">
         <v>27</v>
@@ -4677,12 +4677,12 @@
         <v>10</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B249" t="s">
         <v>27</v>
@@ -4694,12 +4694,12 @@
         <v>11</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B250" t="s">
         <v>27</v>
@@ -4711,12 +4711,12 @@
         <v>7</v>
       </c>
       <c r="E250">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B251" t="s">
         <v>27</v>
@@ -4728,12 +4728,12 @@
         <v>9</v>
       </c>
       <c r="E251">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B252" t="s">
         <v>27</v>
@@ -4745,12 +4745,12 @@
         <v>10</v>
       </c>
       <c r="E252">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B253" t="s">
         <v>27</v>
@@ -4762,12 +4762,12 @@
         <v>11</v>
       </c>
       <c r="E253">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B254" t="s">
         <v>27</v>
@@ -4779,12 +4779,12 @@
         <v>7</v>
       </c>
       <c r="E254">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B255" t="s">
         <v>27</v>
@@ -4796,12 +4796,12 @@
         <v>9</v>
       </c>
       <c r="E255">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B256" t="s">
         <v>27</v>
@@ -4813,12 +4813,12 @@
         <v>10</v>
       </c>
       <c r="E256">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B257" t="s">
         <v>27</v>
@@ -4830,12 +4830,12 @@
         <v>11</v>
       </c>
       <c r="E257">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B258" t="s">
         <v>27</v>
@@ -4847,12 +4847,12 @@
         <v>7</v>
       </c>
       <c r="E258">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B259" t="s">
         <v>27</v>
@@ -4864,12 +4864,12 @@
         <v>9</v>
       </c>
       <c r="E259">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B260" t="s">
         <v>27</v>
@@ -4881,12 +4881,12 @@
         <v>10</v>
       </c>
       <c r="E260">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B261" t="s">
         <v>27</v>
@@ -4898,12 +4898,12 @@
         <v>11</v>
       </c>
       <c r="E261">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B262" t="s">
         <v>27</v>
@@ -4915,12 +4915,12 @@
         <v>7</v>
       </c>
       <c r="E262">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B263" t="s">
         <v>27</v>
@@ -4932,12 +4932,12 @@
         <v>9</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B264" t="s">
         <v>27</v>
@@ -4949,12 +4949,12 @@
         <v>10</v>
       </c>
       <c r="E264">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B265" t="s">
         <v>27</v>
@@ -4966,126 +4966,126 @@
         <v>11</v>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B266" t="s">
         <v>27</v>
       </c>
       <c r="C266" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D266" t="s">
         <v>7</v>
       </c>
       <c r="E266">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B267" t="s">
         <v>27</v>
       </c>
       <c r="C267" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D267" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E267">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B268" t="s">
         <v>27</v>
       </c>
       <c r="C268" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D268" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E268">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B269" t="s">
         <v>27</v>
       </c>
       <c r="C269" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D269" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B270" t="s">
         <v>27</v>
       </c>
       <c r="C270" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D270" t="s">
         <v>7</v>
       </c>
       <c r="E270">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B271" t="s">
         <v>27</v>
       </c>
       <c r="C271" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D271" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E271">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B272" t="s">
         <v>27</v>
       </c>
       <c r="C272" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D272" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E272">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -5096,13 +5096,13 @@
         <v>27</v>
       </c>
       <c r="C273" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D273" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E273">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -5113,13 +5113,13 @@
         <v>27</v>
       </c>
       <c r="C274" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D274" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E274">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -5130,13 +5130,13 @@
         <v>27</v>
       </c>
       <c r="C275" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D275" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E275">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -5147,13 +5147,13 @@
         <v>27</v>
       </c>
       <c r="C276" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D276" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E276">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -5164,13 +5164,13 @@
         <v>27</v>
       </c>
       <c r="C277" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D277" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E277">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -5181,13 +5181,13 @@
         <v>27</v>
       </c>
       <c r="C278" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D278" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E278">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -5198,13 +5198,13 @@
         <v>27</v>
       </c>
       <c r="C279" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D279" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E279">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -5215,13 +5215,13 @@
         <v>27</v>
       </c>
       <c r="C280" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D280" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -5232,13 +5232,13 @@
         <v>27</v>
       </c>
       <c r="C281" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D281" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E281">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -5249,137 +5249,137 @@
         <v>27</v>
       </c>
       <c r="C282" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D282" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E282">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B283" t="s">
         <v>27</v>
       </c>
       <c r="C283" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D283" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E283">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B284" t="s">
         <v>27</v>
       </c>
       <c r="C284" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D284" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E284">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B285" t="s">
         <v>27</v>
       </c>
       <c r="C285" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D285" t="s">
         <v>11</v>
       </c>
       <c r="E285">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B286" t="s">
         <v>27</v>
       </c>
       <c r="C286" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D286" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E286">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B287" t="s">
         <v>27</v>
       </c>
       <c r="C287" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D287" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E287">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B288" t="s">
         <v>27</v>
       </c>
       <c r="C288" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D288" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B289" t="s">
         <v>27</v>
       </c>
       <c r="C289" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D289" t="s">
         <v>11</v>
       </c>
       <c r="E289">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B290" t="s">
         <v>27</v>
@@ -5391,12 +5391,12 @@
         <v>7</v>
       </c>
       <c r="E290">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B291" t="s">
         <v>27</v>
@@ -5408,12 +5408,12 @@
         <v>9</v>
       </c>
       <c r="E291">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B292" t="s">
         <v>27</v>
@@ -5425,12 +5425,12 @@
         <v>10</v>
       </c>
       <c r="E292">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B293" t="s">
         <v>27</v>
@@ -5442,12 +5442,12 @@
         <v>11</v>
       </c>
       <c r="E293">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B294" t="s">
         <v>27</v>
@@ -5459,12 +5459,12 @@
         <v>7</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B295" t="s">
         <v>27</v>
@@ -5476,12 +5476,12 @@
         <v>9</v>
       </c>
       <c r="E295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B296" t="s">
         <v>27</v>
@@ -5493,12 +5493,12 @@
         <v>10</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B297" t="s">
         <v>27</v>
@@ -5510,12 +5510,12 @@
         <v>11</v>
       </c>
       <c r="E297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B298" t="s">
         <v>27</v>
@@ -5527,12 +5527,12 @@
         <v>7</v>
       </c>
       <c r="E298">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B299" t="s">
         <v>27</v>
@@ -5544,12 +5544,12 @@
         <v>9</v>
       </c>
       <c r="E299">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B300" t="s">
         <v>27</v>
@@ -5561,12 +5561,12 @@
         <v>10</v>
       </c>
       <c r="E300">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B301" t="s">
         <v>27</v>
@@ -5578,12 +5578,12 @@
         <v>11</v>
       </c>
       <c r="E301">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B302" t="s">
         <v>27</v>
@@ -5595,12 +5595,12 @@
         <v>7</v>
       </c>
       <c r="E302">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B303" t="s">
         <v>27</v>
@@ -5612,12 +5612,12 @@
         <v>9</v>
       </c>
       <c r="E303">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B304" t="s">
         <v>27</v>
@@ -5629,12 +5629,12 @@
         <v>10</v>
       </c>
       <c r="E304">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B305" t="s">
         <v>27</v>
@@ -5646,12 +5646,12 @@
         <v>11</v>
       </c>
       <c r="E305">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B306" t="s">
         <v>27</v>
@@ -5663,12 +5663,12 @@
         <v>7</v>
       </c>
       <c r="E306">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B307" t="s">
         <v>27</v>
@@ -5680,12 +5680,12 @@
         <v>9</v>
       </c>
       <c r="E307">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B308" t="s">
         <v>27</v>
@@ -5697,12 +5697,12 @@
         <v>10</v>
       </c>
       <c r="E308">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B309" t="s">
         <v>27</v>
@@ -5714,12 +5714,12 @@
         <v>11</v>
       </c>
       <c r="E309">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B310" t="s">
         <v>27</v>
@@ -5731,12 +5731,12 @@
         <v>7</v>
       </c>
       <c r="E310">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B311" t="s">
         <v>27</v>
@@ -5748,12 +5748,12 @@
         <v>9</v>
       </c>
       <c r="E311">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B312" t="s">
         <v>27</v>
@@ -5765,12 +5765,12 @@
         <v>10</v>
       </c>
       <c r="E312">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B313" t="s">
         <v>27</v>
@@ -5782,695 +5782,599 @@
         <v>11</v>
       </c>
       <c r="E313">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B314" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C314" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D314" t="s">
         <v>7</v>
       </c>
       <c r="E314">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B315" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C315" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D315" t="s">
         <v>9</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B316" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C316" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D316" t="s">
         <v>10</v>
       </c>
       <c r="E316">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B317" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C317" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D317" t="s">
         <v>11</v>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B318" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C318" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D318" t="s">
         <v>7</v>
       </c>
       <c r="E318">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B319" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C319" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D319" t="s">
         <v>9</v>
       </c>
       <c r="E319">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B320" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C320" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D320" t="s">
         <v>10</v>
       </c>
       <c r="E320">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B321" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C321" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D321" t="s">
         <v>11</v>
       </c>
       <c r="E321">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B322" t="s">
         <v>29</v>
       </c>
       <c r="C322" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D322" t="s">
         <v>7</v>
-      </c>
-      <c r="E322">
-        <v>6</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B323" t="s">
         <v>29</v>
       </c>
       <c r="C323" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D323" t="s">
         <v>9</v>
-      </c>
-      <c r="E323">
-        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B324" t="s">
         <v>29</v>
       </c>
       <c r="C324" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D324" t="s">
         <v>10</v>
-      </c>
-      <c r="E324">
-        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B325" t="s">
         <v>29</v>
       </c>
       <c r="C325" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D325" t="s">
         <v>11</v>
-      </c>
-      <c r="E325">
-        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B326" t="s">
         <v>29</v>
       </c>
       <c r="C326" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D326" t="s">
         <v>7</v>
-      </c>
-      <c r="E326">
-        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B327" t="s">
         <v>29</v>
       </c>
       <c r="C327" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D327" t="s">
         <v>9</v>
-      </c>
-      <c r="E327">
-        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B328" t="s">
         <v>29</v>
       </c>
       <c r="C328" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D328" t="s">
         <v>10</v>
-      </c>
-      <c r="E328">
-        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B329" t="s">
         <v>29</v>
       </c>
       <c r="C329" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D329" t="s">
         <v>11</v>
-      </c>
-      <c r="E329">
-        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B330" t="s">
         <v>29</v>
       </c>
       <c r="C330" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D330" t="s">
         <v>7</v>
-      </c>
-      <c r="E330">
-        <v>16</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B331" t="s">
         <v>29</v>
       </c>
       <c r="C331" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D331" t="s">
         <v>9</v>
-      </c>
-      <c r="E331">
-        <v>16</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B332" t="s">
         <v>29</v>
       </c>
       <c r="C332" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D332" t="s">
         <v>10</v>
-      </c>
-      <c r="E332">
-        <v>16</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B333" t="s">
         <v>29</v>
       </c>
       <c r="C333" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D333" t="s">
         <v>11</v>
-      </c>
-      <c r="E333">
-        <v>16</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B334" t="s">
         <v>29</v>
       </c>
       <c r="C334" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D334" t="s">
         <v>7</v>
-      </c>
-      <c r="E334">
-        <v>15</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B335" t="s">
         <v>29</v>
       </c>
       <c r="C335" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D335" t="s">
         <v>9</v>
-      </c>
-      <c r="E335">
-        <v>15</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B336" t="s">
         <v>29</v>
       </c>
       <c r="C336" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D336" t="s">
         <v>10</v>
       </c>
-      <c r="E336">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B337" t="s">
         <v>29</v>
       </c>
       <c r="C337" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D337" t="s">
         <v>11</v>
       </c>
-      <c r="E337">
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B338" t="s">
         <v>29</v>
       </c>
       <c r="C338" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D338" t="s">
         <v>7</v>
       </c>
-      <c r="E338">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B339" t="s">
         <v>29</v>
       </c>
       <c r="C339" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D339" t="s">
         <v>9</v>
       </c>
-      <c r="E339">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B340" t="s">
         <v>29</v>
       </c>
       <c r="C340" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D340" t="s">
         <v>10</v>
       </c>
-      <c r="E340">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B341" t="s">
         <v>29</v>
       </c>
       <c r="C341" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D341" t="s">
         <v>11</v>
       </c>
-      <c r="E341">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B342" t="s">
         <v>29</v>
       </c>
       <c r="C342" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D342" t="s">
         <v>7</v>
       </c>
-      <c r="E342">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B343" t="s">
         <v>29</v>
       </c>
       <c r="C343" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D343" t="s">
         <v>9</v>
       </c>
-      <c r="E343">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B344" t="s">
         <v>29</v>
       </c>
       <c r="C344" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D344" t="s">
         <v>10</v>
       </c>
-      <c r="E344">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B345" t="s">
         <v>29</v>
       </c>
       <c r="C345" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D345" t="s">
         <v>11</v>
       </c>
-      <c r="E345">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B346" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C346" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D346" t="s">
         <v>7</v>
       </c>
-      <c r="E346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B347" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C347" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D347" t="s">
         <v>9</v>
       </c>
-      <c r="E347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B348" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C348" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D348" t="s">
         <v>10</v>
       </c>
-      <c r="E348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B349" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C349" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D349" t="s">
         <v>11</v>
       </c>
-      <c r="E349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B350" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C350" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D350" t="s">
         <v>7</v>
       </c>
-      <c r="E350">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B351" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C351" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D351" t="s">
         <v>9</v>
       </c>
-      <c r="E351">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B352" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C352" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D352" t="s">
         <v>10</v>
-      </c>
-      <c r="E352">
-        <v>6</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B353" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C353" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D353" t="s">
         <v>11</v>
-      </c>
-      <c r="E353">
-        <v>6</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B354" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C354" t="s">
         <v>6</v>
@@ -6479,15 +6383,15 @@
         <v>7</v>
       </c>
       <c r="E354">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B355" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C355" t="s">
         <v>6</v>
@@ -6496,15 +6400,15 @@
         <v>9</v>
       </c>
       <c r="E355">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B356" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C356" t="s">
         <v>6</v>
@@ -6513,15 +6417,15 @@
         <v>10</v>
       </c>
       <c r="E356">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B357" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C357" t="s">
         <v>6</v>
@@ -6530,15 +6434,15 @@
         <v>11</v>
       </c>
       <c r="E357">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B358" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C358" t="s">
         <v>6</v>
@@ -6547,15 +6451,15 @@
         <v>7</v>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B359" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C359" t="s">
         <v>6</v>
@@ -6564,15 +6468,15 @@
         <v>9</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B360" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C360" t="s">
         <v>6</v>
@@ -6581,15 +6485,15 @@
         <v>10</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B361" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C361" t="s">
         <v>6</v>
@@ -6598,15 +6502,15 @@
         <v>11</v>
       </c>
       <c r="E361">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B362" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C362" t="s">
         <v>6</v>
@@ -6615,15 +6519,15 @@
         <v>7</v>
       </c>
       <c r="E362">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B363" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C363" t="s">
         <v>6</v>
@@ -6632,15 +6536,15 @@
         <v>9</v>
       </c>
       <c r="E363">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B364" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C364" t="s">
         <v>6</v>
@@ -6649,15 +6553,15 @@
         <v>10</v>
       </c>
       <c r="E364">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B365" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C365" t="s">
         <v>6</v>
@@ -6666,15 +6570,15 @@
         <v>11</v>
       </c>
       <c r="E365">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B366" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C366" t="s">
         <v>6</v>
@@ -6683,15 +6587,15 @@
         <v>7</v>
       </c>
       <c r="E366">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B367" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C367" t="s">
         <v>6</v>
@@ -6700,15 +6604,15 @@
         <v>9</v>
       </c>
       <c r="E367">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B368" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C368" t="s">
         <v>6</v>
@@ -6717,15 +6621,15 @@
         <v>10</v>
       </c>
       <c r="E368">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B369" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C369" t="s">
         <v>6</v>
@@ -6734,15 +6638,15 @@
         <v>11</v>
       </c>
       <c r="E369">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B370" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C370" t="s">
         <v>6</v>
@@ -6751,15 +6655,15 @@
         <v>7</v>
       </c>
       <c r="E370">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B371" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C371" t="s">
         <v>6</v>
@@ -6768,15 +6672,15 @@
         <v>9</v>
       </c>
       <c r="E371">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B372" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C372" t="s">
         <v>6</v>
@@ -6785,15 +6689,15 @@
         <v>10</v>
       </c>
       <c r="E372">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B373" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C373" t="s">
         <v>6</v>
@@ -6802,15 +6706,15 @@
         <v>11</v>
       </c>
       <c r="E373">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B374" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C374" t="s">
         <v>6</v>
@@ -6819,15 +6723,15 @@
         <v>7</v>
       </c>
       <c r="E374">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B375" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C375" t="s">
         <v>6</v>
@@ -6836,15 +6740,15 @@
         <v>9</v>
       </c>
       <c r="E375">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B376" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C376" t="s">
         <v>6</v>
@@ -6853,15 +6757,15 @@
         <v>10</v>
       </c>
       <c r="E376">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B377" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C377" t="s">
         <v>6</v>
@@ -6870,15 +6774,15 @@
         <v>11</v>
       </c>
       <c r="E377">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B378" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C378" t="s">
         <v>6</v>
@@ -6887,15 +6791,15 @@
         <v>7</v>
       </c>
       <c r="E378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B379" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C379" t="s">
         <v>6</v>
@@ -6904,15 +6808,15 @@
         <v>9</v>
       </c>
       <c r="E379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B380" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C380" t="s">
         <v>6</v>
@@ -6921,15 +6825,15 @@
         <v>10</v>
       </c>
       <c r="E380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B381" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C381" t="s">
         <v>6</v>
@@ -6938,83 +6842,83 @@
         <v>11</v>
       </c>
       <c r="E381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B382" t="s">
+        <v>29</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" t="s">
+        <v>7</v>
+      </c>
+      <c r="E382">
         <v>12</v>
-      </c>
-      <c r="B382" t="s">
-        <v>31</v>
-      </c>
-      <c r="C382" t="s">
-        <v>6</v>
-      </c>
-      <c r="D382" t="s">
-        <v>7</v>
-      </c>
-      <c r="E382">
-        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B383" t="s">
+        <v>29</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" t="s">
+        <v>9</v>
+      </c>
+      <c r="E383">
         <v>12</v>
-      </c>
-      <c r="B383" t="s">
-        <v>31</v>
-      </c>
-      <c r="C383" t="s">
-        <v>6</v>
-      </c>
-      <c r="D383" t="s">
-        <v>9</v>
-      </c>
-      <c r="E383">
-        <v>4</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B384" t="s">
+        <v>29</v>
+      </c>
+      <c r="C384" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384" t="s">
+        <v>10</v>
+      </c>
+      <c r="E384">
         <v>12</v>
-      </c>
-      <c r="B384" t="s">
-        <v>31</v>
-      </c>
-      <c r="C384" t="s">
-        <v>6</v>
-      </c>
-      <c r="D384" t="s">
-        <v>10</v>
-      </c>
-      <c r="E384">
-        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B385" t="s">
+        <v>29</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" t="s">
+        <v>11</v>
+      </c>
+      <c r="E385">
         <v>12</v>
-      </c>
-      <c r="B385" t="s">
-        <v>31</v>
-      </c>
-      <c r="C385" t="s">
-        <v>6</v>
-      </c>
-      <c r="D385" t="s">
-        <v>11</v>
-      </c>
-      <c r="E385">
-        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B386" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C386" t="s">
         <v>6</v>
@@ -7023,15 +6927,15 @@
         <v>7</v>
       </c>
       <c r="E386">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B387" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C387" t="s">
         <v>6</v>
@@ -7040,15 +6944,15 @@
         <v>9</v>
       </c>
       <c r="E387">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B388" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C388" t="s">
         <v>6</v>
@@ -7057,15 +6961,15 @@
         <v>10</v>
       </c>
       <c r="E388">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B389" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C389" t="s">
         <v>6</v>
@@ -7074,15 +6978,15 @@
         <v>11</v>
       </c>
       <c r="E389">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B390" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C390" t="s">
         <v>6</v>
@@ -7091,15 +6995,15 @@
         <v>7</v>
       </c>
       <c r="E390">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B391" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C391" t="s">
         <v>6</v>
@@ -7108,15 +7012,15 @@
         <v>9</v>
       </c>
       <c r="E391">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B392" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C392" t="s">
         <v>6</v>
@@ -7125,15 +7029,15 @@
         <v>10</v>
       </c>
       <c r="E392">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B393" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C393" t="s">
         <v>6</v>
@@ -7142,15 +7046,15 @@
         <v>11</v>
       </c>
       <c r="E393">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B394" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C394" t="s">
         <v>6</v>
@@ -7159,15 +7063,15 @@
         <v>7</v>
       </c>
       <c r="E394">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B395" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C395" t="s">
         <v>6</v>
@@ -7176,15 +7080,15 @@
         <v>9</v>
       </c>
       <c r="E395">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B396" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C396" t="s">
         <v>6</v>
@@ -7193,15 +7097,15 @@
         <v>10</v>
       </c>
       <c r="E396">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B397" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C397" t="s">
         <v>6</v>
@@ -7210,15 +7114,15 @@
         <v>11</v>
       </c>
       <c r="E397">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B398" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C398" t="s">
         <v>6</v>
@@ -7227,15 +7131,15 @@
         <v>7</v>
       </c>
       <c r="E398">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B399" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C399" t="s">
         <v>6</v>
@@ -7244,15 +7148,15 @@
         <v>9</v>
       </c>
       <c r="E399">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B400" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C400" t="s">
         <v>6</v>
@@ -7261,15 +7165,15 @@
         <v>10</v>
       </c>
       <c r="E400">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B401" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C401" t="s">
         <v>6</v>
@@ -7278,15 +7182,15 @@
         <v>11</v>
       </c>
       <c r="E401">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B402" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C402" t="s">
         <v>6</v>
@@ -7295,15 +7199,15 @@
         <v>7</v>
       </c>
       <c r="E402">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B403" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C403" t="s">
         <v>6</v>
@@ -7312,15 +7216,15 @@
         <v>9</v>
       </c>
       <c r="E403">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B404" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C404" t="s">
         <v>6</v>
@@ -7329,15 +7233,15 @@
         <v>10</v>
       </c>
       <c r="E404">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B405" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C405" t="s">
         <v>6</v>
@@ -7346,15 +7250,15 @@
         <v>11</v>
       </c>
       <c r="E405">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B406" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C406" t="s">
         <v>6</v>
@@ -7363,15 +7267,15 @@
         <v>7</v>
       </c>
       <c r="E406">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B407" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C407" t="s">
         <v>6</v>
@@ -7380,15 +7284,15 @@
         <v>9</v>
       </c>
       <c r="E407">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B408" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C408" t="s">
         <v>6</v>
@@ -7397,15 +7301,15 @@
         <v>10</v>
       </c>
       <c r="E408">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B409" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C409" t="s">
         <v>6</v>
@@ -7414,15 +7318,15 @@
         <v>11</v>
       </c>
       <c r="E409">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B410" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C410" t="s">
         <v>6</v>
@@ -7431,15 +7335,15 @@
         <v>7</v>
       </c>
       <c r="E410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B411" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C411" t="s">
         <v>6</v>
@@ -7448,15 +7352,15 @@
         <v>9</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B412" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C412" t="s">
         <v>6</v>
@@ -7465,15 +7369,15 @@
         <v>10</v>
       </c>
       <c r="E412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B413" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C413" t="s">
         <v>6</v>
@@ -7482,83 +7386,83 @@
         <v>11</v>
       </c>
       <c r="E413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B414" t="s">
+        <v>30</v>
+      </c>
+      <c r="C414" t="s">
+        <v>6</v>
+      </c>
+      <c r="D414" t="s">
+        <v>7</v>
+      </c>
+      <c r="E414">
         <v>12</v>
-      </c>
-      <c r="B414" t="s">
-        <v>33</v>
-      </c>
-      <c r="C414" t="s">
-        <v>6</v>
-      </c>
-      <c r="D414" t="s">
-        <v>7</v>
-      </c>
-      <c r="E414">
-        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B415" t="s">
+        <v>30</v>
+      </c>
+      <c r="C415" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" t="s">
+        <v>9</v>
+      </c>
+      <c r="E415">
         <v>12</v>
-      </c>
-      <c r="B415" t="s">
-        <v>33</v>
-      </c>
-      <c r="C415" t="s">
-        <v>6</v>
-      </c>
-      <c r="D415" t="s">
-        <v>9</v>
-      </c>
-      <c r="E415">
-        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B416" t="s">
+        <v>30</v>
+      </c>
+      <c r="C416" t="s">
+        <v>6</v>
+      </c>
+      <c r="D416" t="s">
+        <v>10</v>
+      </c>
+      <c r="E416">
         <v>12</v>
-      </c>
-      <c r="B416" t="s">
-        <v>33</v>
-      </c>
-      <c r="C416" t="s">
-        <v>6</v>
-      </c>
-      <c r="D416" t="s">
-        <v>10</v>
-      </c>
-      <c r="E416">
-        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B417" t="s">
+        <v>30</v>
+      </c>
+      <c r="C417" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417" t="s">
+        <v>11</v>
+      </c>
+      <c r="E417">
         <v>12</v>
-      </c>
-      <c r="B417" t="s">
-        <v>33</v>
-      </c>
-      <c r="C417" t="s">
-        <v>6</v>
-      </c>
-      <c r="D417" t="s">
-        <v>11</v>
-      </c>
-      <c r="E417">
-        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B418" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C418" t="s">
         <v>6</v>
@@ -7567,15 +7471,15 @@
         <v>7</v>
       </c>
       <c r="E418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B419" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C419" t="s">
         <v>6</v>
@@ -7584,15 +7488,15 @@
         <v>9</v>
       </c>
       <c r="E419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B420" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C420" t="s">
         <v>6</v>
@@ -7601,15 +7505,15 @@
         <v>10</v>
       </c>
       <c r="E420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B421" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C421" t="s">
         <v>6</v>
@@ -7618,15 +7522,15 @@
         <v>11</v>
       </c>
       <c r="E421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B422" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C422" t="s">
         <v>6</v>
@@ -7635,15 +7539,15 @@
         <v>7</v>
       </c>
       <c r="E422">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B423" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C423" t="s">
         <v>6</v>
@@ -7652,15 +7556,15 @@
         <v>9</v>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B424" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C424" t="s">
         <v>6</v>
@@ -7669,15 +7573,15 @@
         <v>10</v>
       </c>
       <c r="E424">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B425" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C425" t="s">
         <v>6</v>
@@ -7686,15 +7590,15 @@
         <v>11</v>
       </c>
       <c r="E425">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B426" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C426" t="s">
         <v>6</v>
@@ -7703,15 +7607,15 @@
         <v>7</v>
       </c>
       <c r="E426">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B427" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C427" t="s">
         <v>6</v>
@@ -7720,15 +7624,15 @@
         <v>9</v>
       </c>
       <c r="E427">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B428" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C428" t="s">
         <v>6</v>
@@ -7737,15 +7641,15 @@
         <v>10</v>
       </c>
       <c r="E428">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B429" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C429" t="s">
         <v>6</v>
@@ -7754,15 +7658,15 @@
         <v>11</v>
       </c>
       <c r="E429">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B430" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C430" t="s">
         <v>6</v>
@@ -7771,15 +7675,15 @@
         <v>7</v>
       </c>
       <c r="E430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B431" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C431" t="s">
         <v>6</v>
@@ -7788,15 +7692,15 @@
         <v>9</v>
       </c>
       <c r="E431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B432" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C432" t="s">
         <v>6</v>
@@ -7805,15 +7709,15 @@
         <v>10</v>
       </c>
       <c r="E432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B433" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C433" t="s">
         <v>6</v>
@@ -7822,15 +7726,15 @@
         <v>11</v>
       </c>
       <c r="E433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B434" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C434" t="s">
         <v>6</v>
@@ -7839,15 +7743,15 @@
         <v>7</v>
       </c>
       <c r="E434">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B435" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C435" t="s">
         <v>6</v>
@@ -7856,15 +7760,15 @@
         <v>9</v>
       </c>
       <c r="E435">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B436" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C436" t="s">
         <v>6</v>
@@ -7873,15 +7777,15 @@
         <v>10</v>
       </c>
       <c r="E436">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B437" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C437" t="s">
         <v>6</v>
@@ -7890,15 +7794,15 @@
         <v>11</v>
       </c>
       <c r="E437">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B438" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C438" t="s">
         <v>6</v>
@@ -7907,15 +7811,15 @@
         <v>7</v>
       </c>
       <c r="E438">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B439" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C439" t="s">
         <v>6</v>
@@ -7924,15 +7828,15 @@
         <v>9</v>
       </c>
       <c r="E439">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B440" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C440" t="s">
         <v>6</v>
@@ -7941,23 +7845,703 @@
         <v>10</v>
       </c>
       <c r="E440">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B441" t="s">
+        <v>31</v>
+      </c>
+      <c r="C441" t="s">
+        <v>6</v>
+      </c>
+      <c r="D441" t="s">
+        <v>11</v>
+      </c>
+      <c r="E441">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B442" t="s">
+        <v>31</v>
+      </c>
+      <c r="C442" t="s">
+        <v>6</v>
+      </c>
+      <c r="D442" t="s">
+        <v>7</v>
+      </c>
+      <c r="E442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B443" t="s">
+        <v>31</v>
+      </c>
+      <c r="C443" t="s">
+        <v>6</v>
+      </c>
+      <c r="D443" t="s">
+        <v>9</v>
+      </c>
+      <c r="E443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B444" t="s">
+        <v>31</v>
+      </c>
+      <c r="C444" t="s">
+        <v>6</v>
+      </c>
+      <c r="D444" t="s">
+        <v>10</v>
+      </c>
+      <c r="E444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B445" t="s">
+        <v>31</v>
+      </c>
+      <c r="C445" t="s">
+        <v>6</v>
+      </c>
+      <c r="D445" t="s">
+        <v>11</v>
+      </c>
+      <c r="E445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B446" t="s">
+        <v>31</v>
+      </c>
+      <c r="C446" t="s">
+        <v>6</v>
+      </c>
+      <c r="D446" t="s">
+        <v>7</v>
+      </c>
+      <c r="E446">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B447" t="s">
+        <v>31</v>
+      </c>
+      <c r="C447" t="s">
+        <v>6</v>
+      </c>
+      <c r="D447" t="s">
+        <v>9</v>
+      </c>
+      <c r="E447">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B448" t="s">
+        <v>31</v>
+      </c>
+      <c r="C448" t="s">
+        <v>6</v>
+      </c>
+      <c r="D448" t="s">
+        <v>10</v>
+      </c>
+      <c r="E448">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B449" t="s">
+        <v>31</v>
+      </c>
+      <c r="C449" t="s">
+        <v>6</v>
+      </c>
+      <c r="D449" t="s">
+        <v>11</v>
+      </c>
+      <c r="E449">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B450" t="s">
         <v>33</v>
       </c>
-      <c r="C441" t="s">
-        <v>6</v>
-      </c>
-      <c r="D441" t="s">
-        <v>11</v>
-      </c>
-      <c r="E441">
+      <c r="C450" t="s">
+        <v>6</v>
+      </c>
+      <c r="D450" t="s">
+        <v>7</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B451" t="s">
+        <v>33</v>
+      </c>
+      <c r="C451" t="s">
+        <v>6</v>
+      </c>
+      <c r="D451" t="s">
+        <v>9</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B452" t="s">
+        <v>33</v>
+      </c>
+      <c r="C452" t="s">
+        <v>6</v>
+      </c>
+      <c r="D452" t="s">
+        <v>10</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B453" t="s">
+        <v>33</v>
+      </c>
+      <c r="C453" t="s">
+        <v>6</v>
+      </c>
+      <c r="D453" t="s">
+        <v>11</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B454" t="s">
+        <v>33</v>
+      </c>
+      <c r="C454" t="s">
+        <v>6</v>
+      </c>
+      <c r="D454" t="s">
+        <v>7</v>
+      </c>
+      <c r="E454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B455" t="s">
+        <v>33</v>
+      </c>
+      <c r="C455" t="s">
+        <v>6</v>
+      </c>
+      <c r="D455" t="s">
+        <v>9</v>
+      </c>
+      <c r="E455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B456" t="s">
+        <v>33</v>
+      </c>
+      <c r="C456" t="s">
+        <v>6</v>
+      </c>
+      <c r="D456" t="s">
+        <v>10</v>
+      </c>
+      <c r="E456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B457" t="s">
+        <v>33</v>
+      </c>
+      <c r="C457" t="s">
+        <v>6</v>
+      </c>
+      <c r="D457" t="s">
+        <v>11</v>
+      </c>
+      <c r="E457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B458" t="s">
+        <v>33</v>
+      </c>
+      <c r="C458" t="s">
+        <v>6</v>
+      </c>
+      <c r="D458" t="s">
+        <v>7</v>
+      </c>
+      <c r="E458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B459" t="s">
+        <v>33</v>
+      </c>
+      <c r="C459" t="s">
+        <v>6</v>
+      </c>
+      <c r="D459" t="s">
+        <v>9</v>
+      </c>
+      <c r="E459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B460" t="s">
+        <v>33</v>
+      </c>
+      <c r="C460" t="s">
+        <v>6</v>
+      </c>
+      <c r="D460" t="s">
+        <v>10</v>
+      </c>
+      <c r="E460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B461" t="s">
+        <v>33</v>
+      </c>
+      <c r="C461" t="s">
+        <v>6</v>
+      </c>
+      <c r="D461" t="s">
+        <v>11</v>
+      </c>
+      <c r="E461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B462" t="s">
+        <v>33</v>
+      </c>
+      <c r="C462" t="s">
+        <v>6</v>
+      </c>
+      <c r="D462" t="s">
+        <v>7</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B463" t="s">
+        <v>33</v>
+      </c>
+      <c r="C463" t="s">
+        <v>6</v>
+      </c>
+      <c r="D463" t="s">
+        <v>9</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B464" t="s">
+        <v>33</v>
+      </c>
+      <c r="C464" t="s">
+        <v>6</v>
+      </c>
+      <c r="D464" t="s">
+        <v>10</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B465" t="s">
+        <v>33</v>
+      </c>
+      <c r="C465" t="s">
+        <v>6</v>
+      </c>
+      <c r="D465" t="s">
+        <v>11</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B466" t="s">
+        <v>33</v>
+      </c>
+      <c r="C466" t="s">
+        <v>6</v>
+      </c>
+      <c r="D466" t="s">
+        <v>7</v>
+      </c>
+      <c r="E466">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B467" t="s">
+        <v>33</v>
+      </c>
+      <c r="C467" t="s">
+        <v>6</v>
+      </c>
+      <c r="D467" t="s">
+        <v>9</v>
+      </c>
+      <c r="E467">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B468" t="s">
+        <v>33</v>
+      </c>
+      <c r="C468" t="s">
+        <v>6</v>
+      </c>
+      <c r="D468" t="s">
+        <v>10</v>
+      </c>
+      <c r="E468">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B469" t="s">
+        <v>33</v>
+      </c>
+      <c r="C469" t="s">
+        <v>6</v>
+      </c>
+      <c r="D469" t="s">
+        <v>11</v>
+      </c>
+      <c r="E469">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B470" t="s">
+        <v>33</v>
+      </c>
+      <c r="C470" t="s">
+        <v>6</v>
+      </c>
+      <c r="D470" t="s">
+        <v>7</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B471" t="s">
+        <v>33</v>
+      </c>
+      <c r="C471" t="s">
+        <v>6</v>
+      </c>
+      <c r="D471" t="s">
+        <v>9</v>
+      </c>
+      <c r="E471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B472" t="s">
+        <v>33</v>
+      </c>
+      <c r="C472" t="s">
+        <v>6</v>
+      </c>
+      <c r="D472" t="s">
+        <v>10</v>
+      </c>
+      <c r="E472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B473" t="s">
+        <v>33</v>
+      </c>
+      <c r="C473" t="s">
+        <v>6</v>
+      </c>
+      <c r="D473" t="s">
+        <v>11</v>
+      </c>
+      <c r="E473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B474" t="s">
+        <v>33</v>
+      </c>
+      <c r="C474" t="s">
+        <v>6</v>
+      </c>
+      <c r="D474" t="s">
+        <v>7</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B475" t="s">
+        <v>33</v>
+      </c>
+      <c r="C475" t="s">
+        <v>6</v>
+      </c>
+      <c r="D475" t="s">
+        <v>9</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B476" t="s">
+        <v>33</v>
+      </c>
+      <c r="C476" t="s">
+        <v>6</v>
+      </c>
+      <c r="D476" t="s">
+        <v>10</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B477" t="s">
+        <v>33</v>
+      </c>
+      <c r="C477" t="s">
+        <v>6</v>
+      </c>
+      <c r="D477" t="s">
+        <v>11</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B478" t="s">
+        <v>33</v>
+      </c>
+      <c r="C478" t="s">
+        <v>6</v>
+      </c>
+      <c r="D478" t="s">
+        <v>7</v>
+      </c>
+      <c r="E478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B479" t="s">
+        <v>33</v>
+      </c>
+      <c r="C479" t="s">
+        <v>6</v>
+      </c>
+      <c r="D479" t="s">
+        <v>9</v>
+      </c>
+      <c r="E479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B480" t="s">
+        <v>33</v>
+      </c>
+      <c r="C480" t="s">
+        <v>6</v>
+      </c>
+      <c r="D480" t="s">
+        <v>10</v>
+      </c>
+      <c r="E480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B481" t="s">
+        <v>33</v>
+      </c>
+      <c r="C481" t="s">
+        <v>6</v>
+      </c>
+      <c r="D481" t="s">
+        <v>11</v>
+      </c>
+      <c r="E481">
         <v>1</v>
       </c>
     </row>
